--- a/ods/25-KW47 Time-Sheet.xlsx
+++ b/ods/25-KW47 Time-Sheet.xlsx
@@ -3181,11 +3181,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>18.11.2025</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3229,11 +3225,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>18.11.2025</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3277,11 +3269,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>18.11.2025</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3325,11 +3313,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>18.11.2025</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3373,11 +3357,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>19.11.2025</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3421,11 +3401,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>19.11.2025</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3469,11 +3445,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>19.11.2025</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3517,11 +3489,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>19.11.2025</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3565,11 +3533,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>19.11.2025</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3613,11 +3577,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>19.11.2025</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3661,11 +3621,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>20.11.2025</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3709,11 +3665,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>20.11.2025</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3757,11 +3709,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>20.11.2025</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3805,11 +3753,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>20.11.2025</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3853,11 +3797,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>20.11.2025</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>08:00</t>
